--- a/02_MasterWifoMannheim/99_Backup/Course94.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course94.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F592811593658B36F11FE81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD30D1D0-EA90-41DC-9873-58226055701C}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 602 Business Intelligence and Business Analytics Systems</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Business agility is one of the key determinants of business success. It describes the ability of an organization’s executives to make successful business decisions in a both effective and efficient manner. In most modern enterprises, Support Systems represent a core enabler of managerial decision making in that they are supplying up-to-date and accurate information about all relevant aspects of a company’s planning and operations: from stock levels to sales volumes, from process cycle times to key indicators of corporate performance. As an important category of Enterprise Systems, these applications target improving business decision making and enhancing enterprise-wide transparency. The aim of this module is to introduce theoretical foundations, concepts, tools, and current practice of Intelligence and Management Support Systems. Moreover, students are being introduced to decision making at various levels and how various forms of Management Support Systems can support them in their work. The module is complemented with a case study. enterprise challenge with regards to system-based decision making and enterprise-wide transparency. Several practical exercise sessions are offered during this course. The exercises aim to illustrate students how real-world analytical problems can be solved.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>By the end of the module students will  get comprehensive overview of key capabilities of Support Systems,  understand theoretical foundations underlying these systems,  get practically oriented view by analyzing and proposing solutions for a selected enterprise challenge.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 1 7 Exercise 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Case Study (40%) and written exam (60%, 60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Jana Rehse</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>IS 540</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="227.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 602 Business Intelligence and Business Analytics Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Business agility is one of the key determinants of business success. It describes the ability of an organization’s executives to make successful business decisions in a both effective and efficient manner. In most modern enterprises, Support Systems represent a core enabler of managerial decision making in that they are supplying up-to-date and accurate information about all relevant aspects of a company’s planning and operations: from stock levels to sales volumes, from process cycle times to key indicators of corporate performance. As an important category of Enterprise Systems, these applications target improving business decision making and enhancing enterprise-wide transparency. The aim of this module is to introduce theoretical foundations, concepts, tools, and current practice of Intelligence and Management Support Systems. Moreover, students are being introduced to decision making at various levels and how various forms of Management Support Systems can support them in their work. The module is complemented with a case study. enterprise challenge with regards to system-based decision making and enterprise-wide transparency. Several practical exercise sessions are offered during this course. The exercises aim to illustrate students how real-world analytical problems can be solved.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>By the end of the module students will  get comprehensive overview of key capabilities of Support Systems,  understand theoretical foundations underlying these systems,  get practically oriented view by analyzing and proposing solutions for a selected enterprise challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 1 7 Exercise 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Case Study (40%) and written exam (60%, 60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Jana Rehse</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
